--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F664EF37-6DC7-4D9B-AD22-AA03E5E207D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D231DE-E022-46FA-971C-84028906B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="675" windowWidth="21870" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31455" yWindow="330" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="マスターメンテナンス入力" sheetId="1" r:id="rId1"/>
+    <sheet name="マスターメンテナンス入力" sheetId="2" r:id="rId1"/>
+    <sheet name="旧マスターメンテナンス入力" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>マスターメンテナンス</t>
+  </si>
+  <si>
+    <t>社員ID</t>
+  </si>
+  <si>
+    <t>企業名</t>
+  </si>
+  <si>
+    <t>部署名</t>
+  </si>
+  <si>
+    <t>氏名</t>
+  </si>
+  <si>
+    <t>社員区分</t>
+  </si>
+  <si>
+    <t>退職フラグ</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>ソフトベンチャー</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>新規</t>
+  </si>
+  <si>
+    <t>追加</t>
+  </si>
+  <si>
+    <t>研究部</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業部</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発部</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村　一真</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カズマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筑紫　哲也</t>
+  </si>
+  <si>
+    <t>営業　よろしく</t>
+  </si>
+  <si>
+    <t>高市　早苗</t>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正社員</t>
+    <rPh sb="0" eb="3">
+      <t>セイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトベンチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトベンチャーのIDは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスは画面上の「マスター」にチェックがある方のみ対象となる。</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス画面は、最初はロック（グレー）で表示される</t>
+    <rPh sb="14" eb="16">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス画面を使う場合、初期パスワードは、123とする。（後でパスワードは変更OK）</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスを改修する</t>
+    <rPh sb="11" eb="13">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→名前＋パスワードが揃うと更新が出来る</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ソロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,8 +224,39 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1F2937"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,8 +275,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5E7EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0FDF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -81,11 +296,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E7EB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE5E7EB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE5E7EB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE5E7EB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE5E7EB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE5E7EB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE5E7EB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -94,6 +417,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +469,1229 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{846B1495-CBD0-5CE5-65FE-C94B8C5362C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="3248025"/>
+          <a:ext cx="895350" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04469860-5119-EBF2-7CFD-FCF742933B1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1209675"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0E7302-CB8D-4F37-BFE1-B9CAFA09FA22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="1533525"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0591587B-4C12-4456-9C25-9FBC6D870459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="1876425"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD45424-8707-45A8-A243-1D1C7563A615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="2228850"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61D7C37-2866-4B5D-A9E4-C6CCC6D878C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="1181100"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCBE49-C5F3-4666-B8B2-87249110A3D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="1514475"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C889A-08C6-49B5-8A3F-396E09CA32A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="1857375"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1CB9CC-A505-4B68-A37D-F7342892C820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="2200275"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA7CEA8D-BFC8-4DDC-A849-F21F1DB15665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="2533650"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73224159-54E2-4049-B9B7-2D0AD65B02B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867650" y="1209675"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フリーフォーム: 図形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEC76C2-E59E-22CB-1B79-9A66137BCD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="1171575"/>
+          <a:ext cx="238125" cy="228600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY0" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY1" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX2" fmla="*/ 85725 w 238125"/>
+            <a:gd name="connsiteY2" fmla="*/ 152400 h 228600"/>
+            <a:gd name="connsiteX3" fmla="*/ 104775 w 238125"/>
+            <a:gd name="connsiteY3" fmla="*/ 190500 h 228600"/>
+            <a:gd name="connsiteX4" fmla="*/ 123825 w 238125"/>
+            <a:gd name="connsiteY4" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX5" fmla="*/ 238125 w 238125"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 228600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="238125" h="228600">
+              <a:moveTo>
+                <a:pt x="0" y="57150"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="57150"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="41379" y="98529"/>
+                <a:pt x="61402" y="109834"/>
+                <a:pt x="85725" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="92770" y="164728"/>
+                <a:pt x="99182" y="177449"/>
+                <a:pt x="104775" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121192" y="228807"/>
+                <a:pt x="104753" y="209528"/>
+                <a:pt x="123825" y="228600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="238125" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="四角形: 角を丸くする 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FECBE6F-D8E3-474A-AF21-992547939684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="1533525"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="四角形: 角を丸くする 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D06312B-5894-43D5-830B-84DF7F30E0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="1895475"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="四角形: 角を丸くする 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F225B90-F2D6-4419-926D-42E21AC3B8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2228850"/>
+          <a:ext cx="190500" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フリーフォーム: 図形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F9741B-5CB2-4B4D-9FCE-23EFFF906219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="1857375"/>
+          <a:ext cx="238125" cy="228600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY0" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY1" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX2" fmla="*/ 85725 w 238125"/>
+            <a:gd name="connsiteY2" fmla="*/ 152400 h 228600"/>
+            <a:gd name="connsiteX3" fmla="*/ 104775 w 238125"/>
+            <a:gd name="connsiteY3" fmla="*/ 190500 h 228600"/>
+            <a:gd name="connsiteX4" fmla="*/ 123825 w 238125"/>
+            <a:gd name="connsiteY4" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX5" fmla="*/ 238125 w 238125"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 228600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="238125" h="228600">
+              <a:moveTo>
+                <a:pt x="0" y="57150"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="57150"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="41379" y="98529"/>
+                <a:pt x="61402" y="109834"/>
+                <a:pt x="85725" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="92770" y="164728"/>
+                <a:pt x="99182" y="177449"/>
+                <a:pt x="104775" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121192" y="228807"/>
+                <a:pt x="104753" y="209528"/>
+                <a:pt x="123825" y="228600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="238125" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2338ED-4B13-2E4B-C14A-F236E4631E9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="781050"/>
+          <a:ext cx="828675" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -423,14 +2002,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="E2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="18"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D231DE-E022-46FA-971C-84028906B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C2757-6028-48D5-877B-72DE9B3CF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31455" yWindow="330" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33885" yWindow="1380" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マスターメンテナンス入力" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -122,56 +122,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ソフトベンチャーのIDは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マスター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスターメンテナンスは画面上の「マスター」にチェックがある方のみ対象となる。</t>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスターメンテナンス画面は、最初はロック（グレー）で表示される</t>
-    <rPh sb="14" eb="16">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスターメンテナンス画面を使う場合、初期パスワードは、123とする。（後でパスワードは変更OK）</t>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヘンコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -182,18 +133,180 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→名前＋パスワードが揃うと更新が出来る</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
+    <t>パスワード:</t>
+  </si>
+  <si>
+    <t>認証</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス画面の初期パスワードは、一律123とする。（後でパスワードは変更OK）</t>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスは、「マスター」にチェックない方は出来ない。</t>
+    <rPh sb="25" eb="26">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「作業報告書」の氏名は、「マスター」にチェックがある方のみ候補表示される。</t>
+    <rPh sb="1" eb="6">
+      <t>サギョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウホ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターユーザーはオーナーが責任を持つ</t>
+    <rPh sb="14" eb="16">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外は責任を持つことが出来ないため、書き込めない。</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セキニン</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>ソロ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>デキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加の認証は、参照権のみ与える。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サンショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは、オーナーは変えない上で、ID、氏名、パスワードを入力する。</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーが未確定の場合、まずはユーザーを誰かを確認します。</t>
+    <rPh sb="5" eb="8">
+      <t>ミカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このオーナーは、普通はこれで終わり。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非オーナーは参照のみ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーは１つです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、オーナーが１つなので、何処かに情報を持っておきたい。</t>
+    <rPh sb="14" eb="16">
+      <t>ドコ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +364,21 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F2937"/>
+      <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2937"/>
       <name val="BIZ UDゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -408,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -433,13 +561,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -450,6 +577,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,13 +640,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -545,13 +711,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -608,13 +774,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -671,13 +837,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -734,13 +900,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -797,7 +963,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -860,7 +1026,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -923,7 +1089,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -986,7 +1152,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -1049,7 +1215,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -1117,13 +1283,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1180,13 +1346,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,13 +1472,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1369,13 +1535,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1432,13 +1598,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1495,13 +1661,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1617,25 +1783,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="485775" cy="257175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2338ED-4B13-2E4B-C14A-F236E4631E9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01E2407-4AE4-41DE-8BC1-A3DE7720E700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,23 +1804,83 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="781050"/>
-          <a:ext cx="828675" cy="2133600"/>
+          <a:off x="7524750" y="942975"/>
+          <a:ext cx="485775" cy="257175"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>認証</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876299</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038222</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="二等辺三角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C96D84-3F11-D436-4EA6-18EC98F5E5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4562474" y="1038223"/>
+          <a:ext cx="161923" cy="114301"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2004,10 +2225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2015,7 +2236,7 @@
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="11.125" customWidth="1"/>
@@ -2024,21 +2245,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A2" s="18"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2046,254 +2268,352 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A3" s="17"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" ht="21">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="22">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="22">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="22">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="22">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>22</v>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47C2757-6028-48D5-877B-72DE9B3CF049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B7F8C-A754-4D23-8A16-88BFFE998C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33885" yWindow="1380" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マスターメンテナンス入力" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -189,16 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターユーザーはオーナーが責任を持つ</t>
-    <rPh sb="14" eb="16">
-      <t>セキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナー以外は責任を持つことが出来ないため、書き込めない。</t>
     <rPh sb="4" eb="6">
       <t>イガイ</t>
@@ -221,25 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加の認証は、参照権のみ与える。</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サンショ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XXXXXX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -264,26 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナーが未確定の場合、まずはユーザーを誰かを確認します。</t>
-    <rPh sb="5" eb="8">
-      <t>ミカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このオーナーは、普通はこれで終わり。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非オーナーは参照のみ</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -294,19 +245,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナーは１つです。</t>
+    <t>氏名のところのセレクトボックスは削除する。</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>また、オーナーが１つなので、何処かに情報を持っておきたい。</t>
+    <t>「作業報告書」の会社名・部署・氏名は、変更できないに変更する。</t>
+    <rPh sb="1" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーが責任を持つ</t>
+    <rPh sb="5" eb="7">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外の認証は、参照権のみ与える。</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サンショ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーは一人なので、複数の場合はエラーとする。</t>
+    <rPh sb="5" eb="7">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フク</t>
+    </rPh>
     <rPh sb="14" eb="16">
-      <t>ドコ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>モ</t>
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーが未確定の場合、本機能でまずはユーザーを誰かを確定します。</t>
+    <rPh sb="5" eb="8">
+      <t>ミカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホンキノウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業報告書の一部変更</t>
+    <rPh sb="0" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2225,10 +2268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2303,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>15</v>
@@ -2312,7 +2355,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>25</v>
@@ -2546,66 +2589,71 @@
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="C25" t="s">
-        <v>39</v>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="C26" t="s">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" t="s">
-        <v>32</v>
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>29</v>
       </c>
     </row>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5B7F8C-A754-4D23-8A16-88BFFE998C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992C178-BD0C-439E-A176-B8D208CA0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -126,13 +126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターメンテナンスを改修する</t>
-    <rPh sb="11" eb="13">
-      <t>カイシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード:</t>
   </si>
   <si>
@@ -215,26 +208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナー:</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは、オーナーは変えない上で、ID、氏名、パスワードを入力する。</t>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非オーナーは参照のみ</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -280,16 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナーが責任を持つ</t>
-    <rPh sb="5" eb="7">
-      <t>セキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナー以外の認証は、参照権のみ与える。</t>
     <rPh sb="4" eb="6">
       <t>イガイ</t>
@@ -350,6 +313,112 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス：オーナー情報を設定する</t>
+    <rPh sb="15" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、オーナー氏名、パスワードを入力する。</t>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー氏名:</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID、オーナー氏名、パスワード（XXXXX）はオーナー情報として常に置いておく。</t>
+    <rPh sb="27" eb="29">
+      <t>ジョウホ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーのIDは、back_end/num.id にある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーのIDに限り、書き込みが出来る。</t>
+    <rPh sb="8" eb="9">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num.idが変われば、ID、オーナー氏名、パスワードも変わる。</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照権は、社員ID～操作のうち、「参照」のものを開いている。</t>
+    <rPh sb="0" eb="2">
+      <t>サンショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -579,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -660,6 +729,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -681,14 +753,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -705,8 +777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="3248025"/>
-          <a:ext cx="895350" cy="314325"/>
+          <a:off x="8524874" y="4067175"/>
+          <a:ext cx="904875" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,7 +1076,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1067,7 +1139,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1130,7 +1202,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1193,7 +1265,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -1256,7 +1328,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1924,6 +1996,132 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フリーフォーム: 図形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782E6B30-23DF-4664-BB81-F6D06D44080E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="2314575"/>
+          <a:ext cx="238125" cy="228600"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY0" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 238125"/>
+            <a:gd name="connsiteY1" fmla="*/ 57150 h 228600"/>
+            <a:gd name="connsiteX2" fmla="*/ 85725 w 238125"/>
+            <a:gd name="connsiteY2" fmla="*/ 152400 h 228600"/>
+            <a:gd name="connsiteX3" fmla="*/ 104775 w 238125"/>
+            <a:gd name="connsiteY3" fmla="*/ 190500 h 228600"/>
+            <a:gd name="connsiteX4" fmla="*/ 123825 w 238125"/>
+            <a:gd name="connsiteY4" fmla="*/ 228600 h 228600"/>
+            <a:gd name="connsiteX5" fmla="*/ 238125 w 238125"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 228600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="238125" h="228600">
+              <a:moveTo>
+                <a:pt x="0" y="57150"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="57150"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="41379" y="98529"/>
+                <a:pt x="61402" y="109834"/>
+                <a:pt x="85725" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="92770" y="164728"/>
+                <a:pt x="99182" y="177449"/>
+                <a:pt x="104775" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="121192" y="228807"/>
+                <a:pt x="104753" y="209528"/>
+                <a:pt x="123825" y="228600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="238125" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2268,10 +2466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2279,15 +2477,16 @@
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="3.25" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="7.375" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="14"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2297,9 +2496,10 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1">
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.25" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -2311,21 +2511,25 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1">
       <c r="A3" s="17"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="40"/>
       <c r="D3" s="10"/>
       <c r="E3" s="13"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
@@ -2334,36 +2538,38 @@
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="I4" s="24"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="33">
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="38"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
@@ -2372,10 +2578,11 @@
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="21">
+      <c r="I6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="21">
       <c r="A7" s="17"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2385,9 +2592,10 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
+      <c r="J7" s="12"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>1</v>
@@ -2411,11 +2619,14 @@
         <v>22</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A9" s="17"/>
       <c r="B9" s="22">
         <v>1</v>
@@ -2432,12 +2643,13 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
       <c r="B10" s="22">
         <v>2</v>
@@ -2456,12 +2668,13 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
       <c r="B11" s="22">
         <v>3</v>
@@ -2481,11 +2694,14 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
       <c r="B12" s="22">
         <v>4</v>
@@ -2504,12 +2720,13 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" thickBot="1">
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>10</v>
@@ -2522,12 +2739,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="17"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2537,9 +2755,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="10"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="17"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2549,9 +2768,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="10"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="17"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2561,9 +2781,10 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="10"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -2573,9 +2794,10 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2586,78 +2808,102 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K18" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="D31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32" spans="1:11">
+      <c r="D32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="C35" t="s">
-        <v>27</v>
+      <c r="B35" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0992C178-BD0C-439E-A176-B8D208CA0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB0BC0-66DC-4A3A-BD5D-96B8081738A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -140,81 +140,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターメンテナンス画面の初期パスワードは、一律123とする。（後でパスワードは変更OK）</t>
-    <rPh sb="13" eb="15">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イチリツ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスターメンテナンスは、「マスター」にチェックない方は出来ない。</t>
-    <rPh sb="25" eb="26">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「作業報告書」の氏名は、「マスター」にチェックがある方のみ候補表示される。</t>
-    <rPh sb="1" eb="6">
-      <t>サギョ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウホ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーナー以外は責任を持つことが出来ないため、書き込めない。</t>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セキニン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XXXXXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非オーナーは参照のみ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -253,25 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナー以外の認証は、参照権のみ与える。</t>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サンショ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナーは一人なので、複数の場合はエラーとする。</t>
     <rPh sb="5" eb="7">
       <t>ヒトリ</t>
@@ -317,16 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターメンテナンス：オーナー情報を設定する</t>
-    <rPh sb="15" eb="17">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID、オーナー氏名、パスワードを入力する。</t>
     <rPh sb="7" eb="9">
       <t>シメイ</t>
@@ -404,21 +301,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参照権は、社員ID～操作のうち、「参照」のものを開いている。</t>
-    <rPh sb="0" eb="2">
+    <t>オーナーのIDは、back_end/num.id にあり、初期値は1番とする。</t>
+    <rPh sb="29" eb="32">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外の認証は、参照権のみ与える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー情報：</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスは、「マスター」にチェックがない方は出来ない。</t>
+    <rPh sb="26" eb="27">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業報告書：</t>
+    <rPh sb="0" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業報告書の「会社名・部署・氏名」は、マスターユーザーの画面におけるものと同じである。</t>
+    <rPh sb="0" eb="5">
+      <t>サギョ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カイシャメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンス：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスで「パスワード」は不要なので、いらない。</t>
+    <rPh sb="19" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードは、オーナーが書き込みできればいい。</t>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスのうち、参照の対象レコードは、「社員ID～操作のうち、参照のものを開いている」とする。</t>
+    <rPh sb="14" eb="16">
       <t>サンショ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <rPh sb="17" eb="19">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="31" eb="33">
       <t>ソウサ</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="43" eb="44">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：マスターメンテナンスで「営業　よろしく」を選択中の場合、作業報告書の「会社名・部署・氏名」の同期を図る。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -732,6 +736,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -755,13 +762,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -826,13 +833,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -889,13 +896,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -952,13 +959,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1015,13 +1022,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,7 +1085,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -1096,69 +1103,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7753350" y="1181100"/>
-          <a:ext cx="485775" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t>更新</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="485775" cy="257175"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCBE49-C5F3-4666-B8B2-87249110A3D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7743825" y="1514475"/>
           <a:ext cx="485775" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1210,10 +1154,10 @@
     <xdr:ext cx="485775" cy="257175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C889A-08C6-49B5-8A3F-396E09CA32A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DCBE49-C5F3-4666-B8B2-87249110A3D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="1857375"/>
+          <a:off x="7743825" y="1514475"/>
           <a:ext cx="485775" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1273,10 +1217,10 @@
     <xdr:ext cx="485775" cy="257175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1CB9CC-A505-4B68-A37D-F7342892C820}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9C889A-08C6-49B5-8A3F-396E09CA32A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1228,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7743825" y="2200275"/>
+          <a:off x="7743825" y="1857375"/>
           <a:ext cx="485775" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1331,6 +1275,69 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="485775" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1CB9CC-A505-4B68-A37D-F7342892C820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="2200275"/>
+          <a:ext cx="485775" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" rIns="36000" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="BIZ UDゴシック" panose="020B0400000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="485775" cy="257175"/>
@@ -1398,13 +1405,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1461,13 +1468,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1587,13 +1594,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1650,13 +1657,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1713,13 +1720,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1776,13 +1783,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2028,13 +2035,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2137,6 +2144,70 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FAE50C1-673A-5013-1850-493B54E05362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="1885950"/>
+          <a:ext cx="600075" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2466,10 +2537,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D53" sqref="D52:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2517,7 +2588,7 @@
     <row r="3" spans="1:11" ht="20.25" customHeight="1">
       <c r="A3" s="17"/>
       <c r="B3" s="40" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="10"/>
@@ -2551,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>15</v>
@@ -2560,7 +2631,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>24</v>
@@ -2595,76 +2666,66 @@
       <c r="J7" s="12"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="22">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="17"/>
       <c r="B10" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2677,25 +2738,23 @@
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="17"/>
       <c r="B11" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2704,23 +2763,25 @@
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="17"/>
       <c r="B12" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>9</v>
       </c>
@@ -2728,34 +2789,46 @@
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1" thickBot="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
       <c r="K14" s="18"/>
     </row>
     <row r="15" spans="1:11">
@@ -2785,124 +2858,153 @@
       <c r="K16" s="18"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="C23" t="s">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="D28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="D30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="D31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="D32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" t="s">
-        <v>28</v>
+    <row r="45" spans="2:4">
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB0BC0-66DC-4A3A-BD5D-96B8081738A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A7900-CB4A-49C7-9653-AD5FBF715624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナー以外の認証は、参照権のみ与える。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナー情報：</t>
     <rPh sb="4" eb="6">
       <t>ジョウ</t>
@@ -423,6 +419,66 @@
     </rPh>
     <rPh sb="51" eb="52">
       <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外のIDの場合、全ての更新系は更新しない（ロックをかける）</t>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外のID（認証）は、参照のみ与える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例）オーナーを1番（社員番号は更新OK、それ以外は更新NG）ですが、2番も更新が出来てしまいます。</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2537,10 +2593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D52:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2669,7 +2725,7 @@
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="12"/>
@@ -2913,7 +2969,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2958,47 +3014,57 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="44" spans="2:4">
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="C46" t="s">
-        <v>52</v>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7A7900-CB4A-49C7-9653-AD5FBF715624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD3B69-C1F8-40AE-ADCA-9EB1EA20ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -479,6 +479,16 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックエンドにトークンベースの認証メカニズムを導入しましたは、いらない。元に戻す。</t>
+    <rPh sb="36" eb="37">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2595,8 +2605,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2965,6 +2975,11 @@
     <row r="24" spans="1:11">
       <c r="C24" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11">

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAD3B69-C1F8-40AE-ADCA-9EB1EA20ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BA634-68DD-4C59-88F6-0A02E6FD3F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,22 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナーのIDに限り、書き込みが出来る。</t>
-    <rPh sb="8" eb="9">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>num.idが変われば、ID、オーナー氏名、パスワードも変わる。</t>
     <rPh sb="7" eb="8">
       <t>カ</t>
@@ -301,16 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナーのIDは、back_end/num.id にあり、初期値は1番とする。</t>
-    <rPh sb="29" eb="32">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナー情報：</t>
     <rPh sb="4" eb="6">
       <t>ジョウ</t>
@@ -318,16 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターメンテナンスは、「マスター」にチェックがない方は出来ない。</t>
-    <rPh sb="26" eb="27">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業報告書：</t>
     <rPh sb="0" eb="5">
       <t>サギョウ</t>
@@ -365,39 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マスターメンテナンスで「パスワード」は不要なので、いらない。</t>
-    <rPh sb="19" eb="25">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードは、オーナーが書き込みできればいい。</t>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスターメンテナンスのうち、参照の対象レコードは、「社員ID～操作のうち、参照のものを開いている」とする。</t>
-    <rPh sb="14" eb="16">
-      <t>サンショ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>例：マスターメンテナンスで「営業　よろしく」を選択中の場合、作業報告書の「会社名・部署・氏名」の同期を図る。</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -445,50 +376,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オーナー以外のID（認証）は、参照のみ与える。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例）オーナーを1番（社員番号は更新OK、それ以外は更新NG）ですが、2番も更新が出来てしまいます。</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックエンドにトークンベースの認証メカニズムを導入しましたは、いらない。元に戻す。</t>
     <rPh sb="36" eb="37">
       <t>モト</t>
     </rPh>
     <rPh sb="38" eb="39">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナーのIDに限り、更新（書き込み）が出来る。</t>
+    <rPh sb="8" eb="9">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスで、今現在、対象レコードは、「参照」の列で分かる。</t>
+    <rPh sb="12" eb="15">
+      <t>イマゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連：オーナーのIDは、ユーザー1人につき１つのIDを持つ。なので、ソフトベンチャーの人数は30個ほどなので、大体そのくらいになる。</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニンズ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスで初期値の「パスワード」は123とする。</t>
+    <rPh sb="11" eb="14">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マスター」は不要なので、削除します。</t>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員マスター.master_flag は削除</t>
+    <rPh sb="20" eb="22">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスは、「社員ID、企業名、部署名、氏名、社員区分、退職フラグ、参照、操作」とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーナー以外のIDは、参照（権）のみ与える。（オーナーは更新＋参照）</t>
+    <rPh sb="14" eb="15">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サンショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2287,6 +2281,116 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F6659D-7AF1-A280-2356-75B53FB3A802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7134225" y="1876425"/>
+          <a:ext cx="638175" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6868956-0C9B-448A-9A35-AB48BE2C3CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="1905000"/>
+          <a:ext cx="685800" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2603,10 +2707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B27" sqref="B27:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2735,7 +2839,7 @@
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="12"/>
@@ -2771,7 +2875,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>7</v>
@@ -2846,7 +2950,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>9</v>
@@ -2977,14 +3081,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="27" spans="1:11">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2993,93 +3092,98 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="D30" t="s">
-        <v>41</v>
+      <c r="C30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="D31" t="s">
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="D35" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="C41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="D43" t="s">
-        <v>49</v>
+      <c r="C43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="C44" t="s">
-        <v>54</v>
+      <c r="D44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/参考/マスターメンテナンス.xlsx
+++ b/参考/マスターメンテナンス.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazum\projects\kinnmuhyou_17\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BA634-68DD-4C59-88F6-0A02E6FD3F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5618A3-C0C0-44DA-B162-8028720FC274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29115" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29355" yWindow="435" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マスターメンテナンス入力" sheetId="2" r:id="rId1"/>
-    <sheet name="旧マスターメンテナンス入力" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>マスターメンテナンス</t>
   </si>
@@ -376,16 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バックエンドにトークンベースの認証メカニズムを導入しましたは、いらない。元に戻す。</t>
-    <rPh sb="36" eb="37">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オーナーのIDに限り、更新（書き込み）が出来る。</t>
     <rPh sb="8" eb="9">
       <t>カギ</t>
@@ -484,6 +473,26 @@
     <rPh sb="31" eb="33">
       <t>サンショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num.id（ファイルの番号） と 社員IDで番号が一緒の場合は、更新権があるため、「作業報告書.保存」も書き込みもOKとする。 →num.id（ファイルの番号）=2 で社員ID=2 ですが、更新権がない。 （本来はある） 　→num.id（ファイルの番号）=1 で社員ID=1 の場合、これは更新権がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→num.id（ファイルの番号）=1 で社員ID=1 の場合、これは更新権がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">→num.id（ファイルの番号）=2 で社員ID=2 ですが、更新権がない。 （本来はある） </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスターメンテナンスで、num.idが変更となる場合がある。 例えば、num.id=1 → 2 に変更とする場合、パスワード認証が必要となるので、「認証」は常にオンでよろしくお願いします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オーナー情報が読み込まれていないか、パスワードが入力されていません。」と表示されてしまいます。 パスワードを入力出来るようにして。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,13 +514,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="BIZ UDゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -560,18 +562,12 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -712,91 +708,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2389,55 +2377,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29482</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>754</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50109AB6-22FD-1B4D-51DB-E0CE79431EAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="6496957" cy="5401429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2707,10 +2646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11364217-74EC-48D0-A46A-1FDE4BB089E8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:C49"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2728,356 +2667,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="13" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="18"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" s="35" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="29">
         <v>1</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="18"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="21">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="18"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="18"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="22">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="22">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22">
+      <c r="A13" s="13"/>
+      <c r="B13" s="18">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1" thickBot="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="17"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="18"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="17"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="18"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="C24" t="s">
+    <row r="25" spans="1:11">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3098,12 +3037,12 @@
     </row>
     <row r="30" spans="1:11">
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3133,17 +3072,17 @@
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -3153,37 +3092,57 @@
     </row>
     <row r="42" spans="2:4">
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" t="s">
-        <v>41</v>
+      <c r="D46" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="C47" t="s">
-        <v>42</v>
+      <c r="D47" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="C53" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3196,236 +3155,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="8.25" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="7.5" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="6" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="9" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="9.75" customHeight="1"/>
-    <row r="14" spans="1:15" s="2" customFormat="1"/>
-    <row r="15" spans="1:15" s="2" customFormat="1"/>
-    <row r="16" spans="1:15" s="2" customFormat="1"/>
-    <row r="17" s="2" customFormat="1"/>
-    <row r="18" s="2" customFormat="1"/>
-    <row r="19" s="2" customFormat="1"/>
-    <row r="20" s="2" customFormat="1"/>
-    <row r="21" s="2" customFormat="1"/>
-    <row r="22" s="2" customFormat="1"/>
-    <row r="23" s="2" customFormat="1"/>
-    <row r="24" s="2" customFormat="1"/>
-    <row r="25" s="2" customFormat="1"/>
-    <row r="26" s="2" customFormat="1"/>
-    <row r="27" s="2" customFormat="1"/>
-    <row r="28" s="2" customFormat="1"/>
-    <row r="29" s="2" customFormat="1"/>
-    <row r="30" s="2" customFormat="1"/>
-    <row r="31" s="2" customFormat="1"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>